--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value43.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value43.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5839995553986673</v>
+        <v>1.793624043464661</v>
       </c>
       <c r="B1">
-        <v>0.7356446226668616</v>
+        <v>2.447698354721069</v>
       </c>
       <c r="C1">
-        <v>1.070503431636556</v>
+        <v>4.659907341003418</v>
       </c>
       <c r="D1">
-        <v>2.940374982812537</v>
+        <v>4.679653167724609</v>
       </c>
       <c r="E1">
-        <v>3.393238311325917</v>
+        <v>1.256336688995361</v>
       </c>
     </row>
   </sheetData>
